--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet indicating the level of care provided initially.</t>
+    <t>ValueSet restricting allowed initial care intensity categories.
+**Primary use-case**
+- Required binding for `InitialCareIntensityExtension.valueCodeableConcept`.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-initial-care-intensity-vs.xlsx
+++ b/ValueSet-initial-care-intensity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
